--- a/Data/All_Yields_SR_Soybean.xlsx
+++ b/Data/All_Yields_SR_Soybean.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milag\OneDrive - Kansas State University\Desktop\R_Soybean_Cobal_Pereyra\Extra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milag\OneDrive - Kansas State University\Documents\GitHub\Soy_Mili_Vale\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B2872BE-C098-4C30-B2A8-4D9514987655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F0F472-D911-4A4F-B7F9-D5230CF92593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{81CF100A-254D-8B4C-A51B-D4F52F208F82}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{81CF100A-254D-8B4C-A51B-D4F52F208F82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="22">
   <si>
     <t>Study</t>
   </si>
@@ -89,9 +89,6 @@
     <t>not measured</t>
   </si>
   <si>
-    <t>SR_ksac(*2.47= ksha)</t>
-  </si>
-  <si>
     <t>10,6%</t>
   </si>
   <si>
@@ -100,14 +97,19 @@
   <si>
     <t>Yield (lb)</t>
   </si>
+  <si>
+    <t>Distance (ft) * 25 ft</t>
+  </si>
+  <si>
+    <t>488,6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -159,13 +161,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -482,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54A4690-43F4-A14B-B6D5-32A9C77A85E8}">
-  <dimension ref="A1:L195"/>
+  <dimension ref="A1:L194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F66" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I149" sqref="I149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -494,7 +496,8 @@
     <col min="5" max="5" width="18.75" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="3"/>
+    <col min="8" max="8" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.75" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -515,10 +518,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -546,6 +552,9 @@
       <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H2" s="2">
+        <v>300</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="3"/>
@@ -572,6 +581,9 @@
       <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H3" s="2">
+        <v>300</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="3"/>
@@ -598,6 +610,9 @@
       <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H4" s="2">
+        <v>300</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="3"/>
@@ -624,6 +639,9 @@
       <c r="G5" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H5" s="2">
+        <v>300</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="3"/>
@@ -650,6 +668,9 @@
       <c r="G6" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H6" s="2">
+        <v>300</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="3"/>
@@ -676,6 +697,9 @@
       <c r="G7" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H7" s="2">
+        <v>300</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="3"/>
@@ -702,6 +726,9 @@
       <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H8" s="2">
+        <v>300</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="3"/>
@@ -728,6 +755,9 @@
       <c r="G9" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H9" s="2">
+        <v>300</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="3"/>
@@ -754,6 +784,9 @@
       <c r="G10" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H10" s="2">
+        <v>300</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="3"/>
@@ -780,6 +813,9 @@
       <c r="G11" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H11" s="2">
+        <v>300</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="3"/>
@@ -806,6 +842,9 @@
       <c r="G12" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H12" s="2">
+        <v>300</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="3"/>
@@ -832,6 +871,9 @@
       <c r="G13" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H13" s="2">
+        <v>300</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="3"/>
@@ -858,6 +900,9 @@
       <c r="G14" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H14" s="2">
+        <v>300</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="3"/>
@@ -884,6 +929,9 @@
       <c r="G15" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H15" s="2">
+        <v>300</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="3"/>
@@ -910,6 +958,9 @@
       <c r="G16" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H16" s="2">
+        <v>300</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="3"/>
@@ -936,6 +987,9 @@
       <c r="G17" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H17" s="2">
+        <v>300</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="3"/>
@@ -962,6 +1016,9 @@
       <c r="G18" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H18" s="2">
+        <v>300</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="3"/>
@@ -988,6 +1045,9 @@
       <c r="G19" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H19" s="2">
+        <v>300</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="3"/>
@@ -1014,6 +1074,9 @@
       <c r="G20" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H20" s="2">
+        <v>300</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="3"/>
@@ -1040,6 +1103,9 @@
       <c r="G21" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H21" s="2">
+        <v>300</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="3"/>
@@ -1066,6 +1132,9 @@
       <c r="G22" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H22" s="2">
+        <v>300</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="3"/>
@@ -1092,6 +1161,9 @@
       <c r="G23" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H23" s="2">
+        <v>300</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="3"/>
@@ -1118,6 +1190,9 @@
       <c r="G24" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H24" s="2">
+        <v>300</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="3"/>
@@ -1144,6 +1219,9 @@
       <c r="G25" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H25" s="2">
+        <v>300</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="3"/>
@@ -1153,7 +1231,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C26" s="3">
         <v>401</v>
@@ -1169,6 +1247,9 @@
       </c>
       <c r="G26" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H26" s="2">
+        <v>300</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1179,7 +1260,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C27" s="3">
         <v>402</v>
@@ -1195,6 +1276,9 @@
       </c>
       <c r="G27" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H27" s="2">
+        <v>300</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1205,7 +1289,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C28" s="3">
         <v>403</v>
@@ -1221,6 +1305,9 @@
       </c>
       <c r="G28" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H28" s="2">
+        <v>300</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1231,7 +1318,7 @@
         <v>8</v>
       </c>
       <c r="B29" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C29" s="3">
         <v>404</v>
@@ -1247,6 +1334,9 @@
       </c>
       <c r="G29" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H29" s="2">
+        <v>300</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1257,7 +1347,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C30" s="3">
         <v>405</v>
@@ -1273,6 +1363,9 @@
       </c>
       <c r="G30" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H30" s="2">
+        <v>300</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -1283,7 +1376,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C31" s="3">
         <v>406</v>
@@ -1299,6 +1392,9 @@
       </c>
       <c r="G31" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H31" s="2">
+        <v>300</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -1309,7 +1405,7 @@
         <v>8</v>
       </c>
       <c r="B32" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C32" s="3">
         <v>407</v>
@@ -1325,6 +1421,9 @@
       </c>
       <c r="G32" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H32" s="2">
+        <v>300</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1335,7 +1434,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C33" s="3">
         <v>408</v>
@@ -1351,6 +1450,9 @@
       </c>
       <c r="G33" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H33" s="2">
+        <v>300</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -1361,7 +1463,7 @@
         <v>8</v>
       </c>
       <c r="B34" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C34" s="3">
         <v>501</v>
@@ -1377,6 +1479,9 @@
       </c>
       <c r="G34" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H34" s="2">
+        <v>300</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -1387,7 +1492,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C35" s="3">
         <v>502</v>
@@ -1403,6 +1508,9 @@
       </c>
       <c r="G35" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H35" s="2">
+        <v>300</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -1413,7 +1521,7 @@
         <v>8</v>
       </c>
       <c r="B36" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C36" s="3">
         <v>503</v>
@@ -1429,6 +1537,9 @@
       </c>
       <c r="G36" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H36" s="2">
+        <v>300</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -1439,7 +1550,7 @@
         <v>8</v>
       </c>
       <c r="B37" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C37" s="3">
         <v>504</v>
@@ -1455,6 +1566,9 @@
       </c>
       <c r="G37" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H37" s="2">
+        <v>300</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -1465,7 +1579,7 @@
         <v>8</v>
       </c>
       <c r="B38" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C38" s="3">
         <v>505</v>
@@ -1481,6 +1595,9 @@
       </c>
       <c r="G38" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H38" s="2">
+        <v>300</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -1491,7 +1608,7 @@
         <v>8</v>
       </c>
       <c r="B39" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C39" s="3">
         <v>506</v>
@@ -1507,6 +1624,9 @@
       </c>
       <c r="G39" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H39" s="2">
+        <v>300</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -1517,7 +1637,7 @@
         <v>8</v>
       </c>
       <c r="B40" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C40" s="3">
         <v>507</v>
@@ -1533,6 +1653,9 @@
       </c>
       <c r="G40" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H40" s="2">
+        <v>300</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -1543,7 +1666,7 @@
         <v>8</v>
       </c>
       <c r="B41" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C41" s="3">
         <v>508</v>
@@ -1559,6 +1682,9 @@
       </c>
       <c r="G41" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H41" s="2">
+        <v>300</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -1569,7 +1695,7 @@
         <v>8</v>
       </c>
       <c r="B42" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C42" s="3">
         <v>601</v>
@@ -1585,6 +1711,9 @@
       </c>
       <c r="G42" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H42" s="2">
+        <v>300</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -1595,7 +1724,7 @@
         <v>8</v>
       </c>
       <c r="B43" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C43" s="3">
         <v>602</v>
@@ -1611,6 +1740,9 @@
       </c>
       <c r="G43" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H43" s="2">
+        <v>300</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -1621,7 +1753,7 @@
         <v>8</v>
       </c>
       <c r="B44" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C44" s="3">
         <v>603</v>
@@ -1637,6 +1769,9 @@
       </c>
       <c r="G44" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H44" s="2">
+        <v>300</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -1647,7 +1782,7 @@
         <v>8</v>
       </c>
       <c r="B45" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C45" s="3">
         <v>604</v>
@@ -1663,6 +1798,9 @@
       </c>
       <c r="G45" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H45" s="2">
+        <v>300</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -1673,7 +1811,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C46" s="3">
         <v>605</v>
@@ -1689,6 +1827,9 @@
       </c>
       <c r="G46" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H46" s="2">
+        <v>300</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -1699,7 +1840,7 @@
         <v>8</v>
       </c>
       <c r="B47" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C47" s="3">
         <v>606</v>
@@ -1715,6 +1856,9 @@
       </c>
       <c r="G47" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H47" s="2">
+        <v>300</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -1725,7 +1869,7 @@
         <v>8</v>
       </c>
       <c r="B48" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C48" s="3">
         <v>607</v>
@@ -1741,6 +1885,9 @@
       </c>
       <c r="G48" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H48" s="2">
+        <v>300</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -1751,7 +1898,7 @@
         <v>8</v>
       </c>
       <c r="B49" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C49" s="3">
         <v>608</v>
@@ -1767,6 +1914,9 @@
       </c>
       <c r="G49" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H49" s="2">
+        <v>300</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -1794,6 +1944,9 @@
       <c r="G50" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H50" s="2">
+        <v>283</v>
+      </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="3"/>
@@ -1820,6 +1973,9 @@
       <c r="G51" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H51" s="2">
+        <v>283</v>
+      </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="3"/>
@@ -1846,6 +2002,9 @@
       <c r="G52" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H52" s="2">
+        <v>283</v>
+      </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="3"/>
@@ -1872,6 +2031,9 @@
       <c r="G53" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H53" s="2">
+        <v>283</v>
+      </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="3"/>
@@ -1898,6 +2060,9 @@
       <c r="G54" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H54" s="2">
+        <v>283</v>
+      </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="3"/>
@@ -1924,6 +2089,9 @@
       <c r="G55" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H55" s="2">
+        <v>283</v>
+      </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="3"/>
@@ -1950,6 +2118,9 @@
       <c r="G56" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H56" s="2">
+        <v>283</v>
+      </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="3"/>
@@ -1976,6 +2147,9 @@
       <c r="G57" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H57" s="2">
+        <v>283</v>
+      </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="3"/>
@@ -2002,6 +2176,9 @@
       <c r="G58" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H58" s="2">
+        <v>283</v>
+      </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="3"/>
@@ -2028,6 +2205,9 @@
       <c r="G59" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H59" s="2">
+        <v>283</v>
+      </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="3"/>
@@ -2054,6 +2234,9 @@
       <c r="G60" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H60" s="2">
+        <v>283</v>
+      </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="3"/>
@@ -2080,6 +2263,9 @@
       <c r="G61" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H61" s="2">
+        <v>283</v>
+      </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="3"/>
@@ -2106,6 +2292,9 @@
       <c r="G62" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H62" s="2">
+        <v>283</v>
+      </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="3"/>
@@ -2132,6 +2321,9 @@
       <c r="G63" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H63" s="2">
+        <v>283</v>
+      </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="3"/>
@@ -2158,6 +2350,9 @@
       <c r="G64" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H64" s="2">
+        <v>283</v>
+      </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="3"/>
@@ -2184,6 +2379,9 @@
       <c r="G65" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H65" s="2">
+        <v>283</v>
+      </c>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="3"/>
@@ -2210,6 +2408,9 @@
       <c r="G66" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H66" s="2">
+        <v>283</v>
+      </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="3"/>
@@ -2236,6 +2437,9 @@
       <c r="G67" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H67" s="2">
+        <v>283</v>
+      </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="3"/>
@@ -2262,6 +2466,9 @@
       <c r="G68" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H68" s="2">
+        <v>283</v>
+      </c>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="3"/>
@@ -2288,6 +2495,9 @@
       <c r="G69" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H69" s="2">
+        <v>283</v>
+      </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="3"/>
@@ -2314,6 +2524,9 @@
       <c r="G70" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H70" s="2">
+        <v>283</v>
+      </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="3"/>
@@ -2340,6 +2553,9 @@
       <c r="G71" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H71" s="2">
+        <v>283</v>
+      </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="3"/>
@@ -2366,6 +2582,9 @@
       <c r="G72" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H72" s="2">
+        <v>283</v>
+      </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="3"/>
@@ -2392,6 +2611,9 @@
       <c r="G73" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="H73" s="2">
+        <v>283</v>
+      </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="3"/>
@@ -2413,10 +2635,13 @@
         <v>214.98</v>
       </c>
       <c r="F74" s="7">
-        <v>1.1299999999999999</v>
+        <v>1130</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H74" s="2">
+        <v>283</v>
       </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -2439,10 +2664,13 @@
         <v>160.62</v>
       </c>
       <c r="F75" s="7">
-        <v>1.1299999999999999</v>
+        <v>1130</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H75" s="2">
+        <v>283</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -2465,10 +2693,13 @@
         <v>269.35000000000002</v>
       </c>
       <c r="F76" s="7">
-        <v>1.1599999999999999</v>
+        <v>1160</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H76" s="2">
+        <v>283</v>
       </c>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -2491,10 +2722,13 @@
         <v>160.62</v>
       </c>
       <c r="F77" s="7">
-        <v>1.21</v>
+        <v>1210</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H77" s="2">
+        <v>283</v>
       </c>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -2517,10 +2751,13 @@
         <v>269.35000000000002</v>
       </c>
       <c r="F78" s="7">
-        <v>1.06</v>
+        <v>1060</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H78" s="2">
+        <v>283</v>
       </c>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -2543,10 +2780,13 @@
         <v>321.24</v>
       </c>
       <c r="F79" s="7">
-        <v>1.03</v>
+        <v>1030</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H79" s="2">
+        <v>283</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -2569,10 +2809,13 @@
         <v>321.24</v>
       </c>
       <c r="F80" s="7">
-        <v>1.08</v>
+        <v>1080</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H80" s="2">
+        <v>283</v>
       </c>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -2595,10 +2838,13 @@
         <v>214.98</v>
       </c>
       <c r="F81" s="7">
-        <v>1.19</v>
+        <v>1190</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H81" s="2">
+        <v>283</v>
       </c>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -2621,10 +2867,13 @@
         <v>269.35000000000002</v>
       </c>
       <c r="F82" s="7">
-        <v>1.1299999999999999</v>
+        <v>1130</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H82" s="2">
+        <v>283</v>
       </c>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -2647,10 +2896,13 @@
         <v>321.24</v>
       </c>
       <c r="F83" s="7">
-        <v>1.06</v>
+        <v>1060</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H83" s="2">
+        <v>283</v>
       </c>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -2673,10 +2925,13 @@
         <v>214.98</v>
       </c>
       <c r="F84" s="7">
-        <v>1.1299999999999999</v>
+        <v>1130</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H84" s="2">
+        <v>283</v>
       </c>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -2699,10 +2954,13 @@
         <v>160.62</v>
       </c>
       <c r="F85" s="7">
-        <v>1.1299999999999999</v>
+        <v>1130</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H85" s="2">
+        <v>283</v>
       </c>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -2725,10 +2983,13 @@
         <v>160.62</v>
       </c>
       <c r="F86" s="7">
-        <v>1.1200000000000001</v>
+        <v>1120</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H86" s="2">
+        <v>283</v>
       </c>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -2751,10 +3012,13 @@
         <v>214.98</v>
       </c>
       <c r="F87" s="7">
-        <v>1.24</v>
+        <v>1240</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H87" s="2">
+        <v>283</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -2777,10 +3041,13 @@
         <v>269.35000000000002</v>
       </c>
       <c r="F88" s="7">
-        <v>1.1599999999999999</v>
+        <v>1160</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H88" s="2">
+        <v>283</v>
       </c>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -2803,10 +3070,13 @@
         <v>321.24</v>
       </c>
       <c r="F89" s="7">
-        <v>1.1200000000000001</v>
+        <v>1120</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H89" s="2">
+        <v>283</v>
       </c>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -2829,10 +3099,13 @@
         <v>214.98</v>
       </c>
       <c r="F90" s="7">
-        <v>1.01</v>
+        <v>1010</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H90" s="2">
+        <v>283</v>
       </c>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -2855,10 +3128,13 @@
         <v>160.62</v>
       </c>
       <c r="F91" s="7">
-        <v>1.01</v>
+        <v>1010</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H91" s="2">
+        <v>283</v>
       </c>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -2881,10 +3157,13 @@
         <v>214.98</v>
       </c>
       <c r="F92" s="7">
-        <v>1.07</v>
+        <v>1070</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H92" s="2">
+        <v>283</v>
       </c>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
@@ -2907,10 +3186,13 @@
         <v>321.24</v>
       </c>
       <c r="F93" s="7">
-        <v>1.1399999999999999</v>
+        <v>1140</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H93" s="2">
+        <v>283</v>
       </c>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -2933,10 +3215,13 @@
         <v>321.24</v>
       </c>
       <c r="F94" s="7">
-        <v>1.1299999999999999</v>
+        <v>1130</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H94" s="2">
+        <v>283</v>
       </c>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
@@ -2959,10 +3244,13 @@
         <v>269.35000000000002</v>
       </c>
       <c r="F95" s="7">
-        <v>1.08</v>
+        <v>1080</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H95" s="2">
+        <v>283</v>
       </c>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
@@ -2985,10 +3273,13 @@
         <v>160.62</v>
       </c>
       <c r="F96" s="7">
-        <v>1.1000000000000001</v>
+        <v>1100</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H96" s="2">
+        <v>283</v>
       </c>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
@@ -3011,10 +3302,13 @@
         <v>269.35000000000002</v>
       </c>
       <c r="F97" s="7">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="H97" s="2">
+        <v>283</v>
       </c>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
@@ -3022,559 +3316,631 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B98" s="3">
         <v>1</v>
       </c>
       <c r="C98" s="3">
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E98" s="3">
-        <v>87</v>
-      </c>
-      <c r="F98" s="6">
-        <v>650</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>19</v>
+        <v>259.46042116603985</v>
+      </c>
+      <c r="F98" s="7">
+        <v>590</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B99" s="3">
         <v>1</v>
       </c>
       <c r="C99" s="3">
-        <v>102</v>
+        <v>402</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E99" s="3">
-        <v>155</v>
-      </c>
-      <c r="F99" s="6">
-        <v>670</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>19</v>
+        <v>210.03938856298464</v>
+      </c>
+      <c r="F99" s="7">
+        <v>590</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B100" s="3">
         <v>1</v>
       </c>
       <c r="C100" s="3">
-        <v>103</v>
+        <v>403</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E100" s="3">
-        <v>109</v>
-      </c>
-      <c r="F100" s="6">
-        <v>614</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>19</v>
+        <v>160.61835595992943</v>
+      </c>
+      <c r="F100" s="7">
+        <v>620</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B101" s="3">
         <v>1</v>
       </c>
       <c r="C101" s="3">
-        <v>104</v>
+        <v>404</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E101" s="3">
-        <v>65</v>
-      </c>
-      <c r="F101" s="6">
-        <v>664</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>19</v>
+        <v>321.23671191985886</v>
+      </c>
+      <c r="F101" s="7">
+        <v>620</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B102" s="3">
         <v>1</v>
       </c>
       <c r="C102" s="3">
-        <v>105</v>
+        <v>405</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E102" s="3">
-        <v>40</v>
-      </c>
-      <c r="F102" s="6">
-        <v>660</v>
-      </c>
-      <c r="G102" s="5" t="s">
-        <v>19</v>
+        <v>321.23671191985886</v>
+      </c>
+      <c r="F102" s="7">
+        <v>530</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" s="2">
+        <v>489</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B103" s="3">
         <v>1</v>
       </c>
       <c r="C103" s="3">
-        <v>106</v>
+        <v>406</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E103" s="3">
-        <v>130</v>
-      </c>
-      <c r="F103" s="6">
+        <v>210.03938856298464</v>
+      </c>
+      <c r="F103" s="7">
         <v>600</v>
       </c>
-      <c r="G103" s="5" t="s">
-        <v>19</v>
+      <c r="G103" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" s="2">
+        <v>489</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B104" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C104" s="3">
-        <v>201</v>
+        <v>407</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E104" s="3">
-        <v>87</v>
-      </c>
-      <c r="F104" s="6">
-        <v>670</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>19</v>
+        <v>259.46042116603985</v>
+      </c>
+      <c r="F104" s="7">
+        <v>600</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104" s="2">
+        <v>489</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B105" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105" s="3">
-        <v>202</v>
+        <v>408</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E105" s="3">
-        <v>65</v>
-      </c>
-      <c r="F105" s="6">
-        <v>640</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>19</v>
+        <v>160.61835595992943</v>
+      </c>
+      <c r="F105" s="7">
+        <v>610</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H105" s="2">
+        <v>489</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B106" s="3">
         <v>2</v>
       </c>
       <c r="C106" s="3">
-        <v>203</v>
+        <v>501</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E106" s="3">
-        <v>109</v>
-      </c>
-      <c r="F106" s="6">
-        <v>560</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>19</v>
+        <v>321.23671191985886</v>
+      </c>
+      <c r="F106" s="7">
+        <v>510</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B107" s="3">
         <v>2</v>
       </c>
       <c r="C107" s="3">
-        <v>204</v>
+        <v>502</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E107" s="3">
-        <v>40</v>
-      </c>
-      <c r="F107" s="6">
-        <v>700</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>19</v>
+        <v>160.61835595992943</v>
+      </c>
+      <c r="F107" s="7">
+        <v>520</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B108" s="3">
         <v>2</v>
       </c>
       <c r="C108" s="3">
-        <v>205</v>
+        <v>503</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E108" s="3">
-        <v>130</v>
-      </c>
-      <c r="F108" s="6">
-        <v>685</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>19</v>
+        <v>210.03938856298464</v>
+      </c>
+      <c r="F108" s="7">
+        <v>510</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B109" s="3">
         <v>2</v>
       </c>
       <c r="C109" s="3">
-        <v>206</v>
+        <v>504</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E109" s="3">
-        <v>155</v>
-      </c>
-      <c r="F109" s="6">
-        <v>700</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>19</v>
+        <v>259.46042116603985</v>
+      </c>
+      <c r="F109" s="7">
+        <v>510</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B110" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C110" s="3">
-        <v>301</v>
+        <v>505</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E110" s="3">
-        <v>87</v>
-      </c>
-      <c r="F110" s="6">
-        <v>580</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>19</v>
+        <v>259.46042116603985</v>
+      </c>
+      <c r="F110" s="7">
+        <v>530</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H110" s="2">
+        <v>489</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B111" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C111" s="3">
-        <v>302</v>
+        <v>506</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E111" s="3">
-        <v>130</v>
-      </c>
-      <c r="F111" s="6">
-        <v>620</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>19</v>
+        <v>160.61835595992943</v>
+      </c>
+      <c r="F111" s="7">
+        <v>540</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H111" s="2">
+        <v>489</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B112" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C112" s="3">
-        <v>303</v>
+        <v>507</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E112" s="3">
-        <v>155</v>
-      </c>
-      <c r="F112" s="6">
-        <v>610</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>210.03938856298464</v>
+      </c>
+      <c r="F112" s="7">
+        <v>530</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H112" s="2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B113" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C113" s="3">
-        <v>304</v>
+        <v>508</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E113" s="3">
-        <v>109</v>
-      </c>
-      <c r="F113" s="6">
-        <v>600</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>321.23671191985886</v>
+      </c>
+      <c r="F113" s="7">
+        <v>550</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H113" s="2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B114" s="3">
         <v>3</v>
       </c>
       <c r="C114" s="3">
-        <v>305</v>
+        <v>601</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E114" s="3">
-        <v>65</v>
-      </c>
-      <c r="F114" s="6">
-        <v>680</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>210.03938856298464</v>
+      </c>
+      <c r="F114" s="7">
+        <v>530</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B115" s="3">
         <v>3</v>
       </c>
       <c r="C115" s="3">
-        <v>306</v>
+        <v>602</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E115" s="3">
-        <v>40</v>
-      </c>
-      <c r="F115" s="6">
-        <v>610</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <v>160.61835595992943</v>
+      </c>
+      <c r="F115" s="7">
+        <v>510</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B116" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C116" s="3">
-        <v>401</v>
+        <v>603</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E116" s="3">
-        <v>155</v>
-      </c>
-      <c r="F116" s="6">
-        <v>650</v>
-      </c>
-      <c r="G116" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <v>259.46042116603985</v>
+      </c>
+      <c r="F116" s="7">
+        <v>540</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B117" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C117" s="3">
-        <v>402</v>
+        <v>604</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E117" s="3">
-        <v>87</v>
-      </c>
-      <c r="F117" s="6">
-        <v>620</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>321.23671191985886</v>
+      </c>
+      <c r="F117" s="7">
+        <v>520</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B118" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C118" s="3">
-        <v>403</v>
+        <v>605</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E118" s="3">
-        <v>130</v>
-      </c>
-      <c r="F118" s="6">
-        <v>540</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+        <v>259.46042116603985</v>
+      </c>
+      <c r="F118" s="7">
+        <v>550</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H118" s="2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B119" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C119" s="3">
-        <v>404</v>
+        <v>606</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E119" s="3">
-        <v>65</v>
-      </c>
-      <c r="F119" s="6">
-        <v>697</v>
-      </c>
-      <c r="G119" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <v>160.61835595992943</v>
+      </c>
+      <c r="F119" s="7">
+        <v>550</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H119" s="2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B120" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C120" s="3">
-        <v>405</v>
+        <v>607</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E120" s="3">
-        <v>109</v>
-      </c>
-      <c r="F120" s="6">
-        <v>720</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <v>321.23671191985886</v>
+      </c>
+      <c r="F120" s="7">
+        <v>570</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H120" s="2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B121" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C121" s="3">
-        <v>406</v>
+        <v>608</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E121" s="3">
-        <v>40</v>
-      </c>
-      <c r="F121" s="6">
-        <v>600</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>210.03938856298464</v>
+      </c>
+      <c r="F121" s="7">
+        <v>560</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H121" s="2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B122" s="3">
         <v>1</v>
@@ -3586,18 +3952,21 @@
         <v>6</v>
       </c>
       <c r="E122" s="3">
-        <v>130</v>
-      </c>
-      <c r="F122" s="6">
-        <v>510</v>
-      </c>
-      <c r="G122" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <v>160.61835595992943</v>
+      </c>
+      <c r="F122" s="7">
+        <v>1150</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H122" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B123" s="3">
         <v>1</v>
@@ -3609,18 +3978,21 @@
         <v>6</v>
       </c>
       <c r="E123" s="3">
-        <v>65</v>
-      </c>
-      <c r="F123" s="6">
-        <v>540</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>321.23671191985886</v>
+      </c>
+      <c r="F123" s="7">
+        <v>1180</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H123" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B124" s="3">
         <v>1</v>
@@ -3632,18 +4004,21 @@
         <v>6</v>
       </c>
       <c r="E124" s="3">
-        <v>109</v>
-      </c>
-      <c r="F124" s="6">
-        <v>610</v>
-      </c>
-      <c r="G124" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>214.98149182329016</v>
+      </c>
+      <c r="F124" s="7">
+        <v>1230</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H124" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B125" s="3">
         <v>1</v>
@@ -3655,18 +4030,21 @@
         <v>6</v>
       </c>
       <c r="E125" s="3">
-        <v>155</v>
-      </c>
-      <c r="F125" s="6">
-        <v>400</v>
-      </c>
-      <c r="G125" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <v>269.34462768665088</v>
+      </c>
+      <c r="F125" s="7">
+        <v>1250</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H125" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B126" s="3">
         <v>1</v>
@@ -3675,21 +4053,24 @@
         <v>105</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E126" s="3">
-        <v>87</v>
-      </c>
-      <c r="F126" s="6">
-        <v>310</v>
-      </c>
-      <c r="G126" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <v>214.98149182329016</v>
+      </c>
+      <c r="F126" s="7">
+        <v>1220</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H126" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B127" s="3">
         <v>1</v>
@@ -3698,467 +4079,542 @@
         <v>106</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E127" s="3">
-        <v>40</v>
-      </c>
-      <c r="F127" s="6">
-        <v>600</v>
-      </c>
-      <c r="G127" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>160.61835595992943</v>
+      </c>
+      <c r="F127" s="7">
+        <v>1130</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H127" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B128" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C128" s="3">
+        <v>107</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" s="3">
+        <v>321.23671191985886</v>
+      </c>
+      <c r="F128" s="7">
+        <v>1150</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H128" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" s="3">
+        <v>1</v>
+      </c>
+      <c r="C129" s="3">
+        <v>108</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" s="3">
+        <v>269.34462768665088</v>
+      </c>
+      <c r="F129" s="7">
+        <v>1200</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H129" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130" s="3">
+        <v>2</v>
+      </c>
+      <c r="C130" s="3">
         <v>201</v>
       </c>
-      <c r="D128" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E128" s="3">
-        <v>109</v>
-      </c>
-      <c r="F128" s="6">
-        <v>610</v>
-      </c>
-      <c r="G128" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B129" s="3">
-        <v>2</v>
-      </c>
-      <c r="C129" s="3">
+      <c r="D130" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" s="3">
+        <v>160.61835595992943</v>
+      </c>
+      <c r="F130" s="7">
+        <v>1230</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H130" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" s="3">
+        <v>2</v>
+      </c>
+      <c r="C131" s="3">
         <v>202</v>
       </c>
-      <c r="D129" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E129" s="3">
-        <v>87</v>
-      </c>
-      <c r="F129" s="6">
-        <v>600</v>
-      </c>
-      <c r="G129" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B130" s="3">
-        <v>2</v>
-      </c>
-      <c r="C130" s="3">
+      <c r="D131" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="3">
+        <v>214.98149182329016</v>
+      </c>
+      <c r="F131" s="7">
+        <v>1230</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H131" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" s="3">
+        <v>2</v>
+      </c>
+      <c r="C132" s="3">
         <v>203</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E130" s="3">
-        <v>40</v>
-      </c>
-      <c r="F130" s="6">
-        <v>630</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B131" s="3">
-        <v>2</v>
-      </c>
-      <c r="C131" s="3">
+      <c r="D132" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E132" s="3">
+        <v>321.23671191985886</v>
+      </c>
+      <c r="F132" s="7">
+        <v>1220</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H132" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" s="3">
+        <v>2</v>
+      </c>
+      <c r="C133" s="3">
         <v>204</v>
       </c>
-      <c r="D131" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E131" s="3">
-        <v>65</v>
-      </c>
-      <c r="F131" s="6">
-        <v>510</v>
-      </c>
-      <c r="G131" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B132" s="3">
-        <v>2</v>
-      </c>
-      <c r="C132" s="3">
+      <c r="D133" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E133" s="3">
+        <v>269.34462768665088</v>
+      </c>
+      <c r="F133" s="7">
+        <v>1370</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H133" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" s="3">
+        <v>2</v>
+      </c>
+      <c r="C134" s="3">
         <v>205</v>
       </c>
-      <c r="D132" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E132" s="3">
-        <v>130</v>
-      </c>
-      <c r="F132" s="6">
-        <v>650</v>
-      </c>
-      <c r="G132" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B133" s="3">
-        <v>2</v>
-      </c>
-      <c r="C133" s="3">
+      <c r="D134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" s="3">
+        <v>269.34462768665088</v>
+      </c>
+      <c r="F134" s="7">
+        <v>1190</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H134" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" s="3">
+        <v>2</v>
+      </c>
+      <c r="C135" s="3">
         <v>206</v>
       </c>
-      <c r="D133" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E133" s="3">
-        <v>155</v>
-      </c>
-      <c r="F133" s="6">
-        <v>690</v>
-      </c>
-      <c r="G133" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B134" s="3">
-        <v>3</v>
-      </c>
-      <c r="C134" s="3">
+      <c r="D135" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" s="3">
+        <v>214.98149182329016</v>
+      </c>
+      <c r="F135" s="7">
+        <v>1200</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H135" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" s="3">
+        <v>2</v>
+      </c>
+      <c r="C136" s="3">
+        <v>207</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" s="3">
+        <v>321.23671191985886</v>
+      </c>
+      <c r="F136" s="7">
+        <v>1220</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H136" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" s="3">
+        <v>2</v>
+      </c>
+      <c r="C137" s="3">
+        <v>208</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" s="3">
+        <v>160.61835595992943</v>
+      </c>
+      <c r="F137" s="7">
+        <v>1230</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H137" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" s="3">
+        <v>3</v>
+      </c>
+      <c r="C138" s="3">
         <v>301</v>
       </c>
-      <c r="D134" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E134" s="3">
-        <v>65</v>
-      </c>
-      <c r="F134" s="6">
-        <v>600</v>
-      </c>
-      <c r="G134" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B135" s="3">
-        <v>3</v>
-      </c>
-      <c r="C135" s="3">
+      <c r="D138" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" s="3">
+        <v>321.23671191985886</v>
+      </c>
+      <c r="F138" s="7">
+        <v>1230</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H138" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" s="3">
+        <v>3</v>
+      </c>
+      <c r="C139" s="3">
         <v>302</v>
       </c>
-      <c r="D135" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E135" s="3">
-        <v>87</v>
-      </c>
-      <c r="F135" s="6">
-        <v>660</v>
-      </c>
-      <c r="G135" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B136" s="3">
-        <v>3</v>
-      </c>
-      <c r="C136" s="3">
+      <c r="D139" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" s="3">
+        <v>160.61835595992943</v>
+      </c>
+      <c r="F139" s="7">
+        <v>1220</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H139" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" s="3">
+        <v>3</v>
+      </c>
+      <c r="C140" s="3">
         <v>303</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E136" s="3">
-        <v>40</v>
-      </c>
-      <c r="F136" s="6">
-        <v>670</v>
-      </c>
-      <c r="G136" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B137" s="3">
-        <v>3</v>
-      </c>
-      <c r="C137" s="3">
+      <c r="D140" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E140" s="3">
+        <v>214.98149182329016</v>
+      </c>
+      <c r="F140" s="7">
+        <v>1220</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H140" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="3">
+        <v>3</v>
+      </c>
+      <c r="C141" s="3">
         <v>304</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E137" s="3">
-        <v>109</v>
-      </c>
-      <c r="F137" s="6">
-        <v>610</v>
-      </c>
-      <c r="G137" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B138" s="3">
-        <v>3</v>
-      </c>
-      <c r="C138" s="3">
+      <c r="D141" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" s="3">
+        <v>269.34462768665088</v>
+      </c>
+      <c r="F141" s="7">
+        <v>1190</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H141" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" s="3">
+        <v>3</v>
+      </c>
+      <c r="C142" s="3">
         <v>305</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E138" s="3">
-        <v>155</v>
-      </c>
-      <c r="F138" s="6">
-        <v>520</v>
-      </c>
-      <c r="G138" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B139" s="3">
-        <v>3</v>
-      </c>
-      <c r="C139" s="3">
+      <c r="D142" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" s="3">
+        <v>321.23671191985886</v>
+      </c>
+      <c r="F142" s="7">
+        <v>1200</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H142" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" s="3">
+        <v>3</v>
+      </c>
+      <c r="C143" s="3">
         <v>306</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E139" s="3">
-        <v>130</v>
-      </c>
-      <c r="F139" s="6">
-        <v>520</v>
-      </c>
-      <c r="G139" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B140" s="3">
-        <v>4</v>
-      </c>
-      <c r="C140" s="3">
-        <v>401</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E140" s="3">
-        <v>65</v>
-      </c>
-      <c r="F140" s="6">
-        <v>590</v>
-      </c>
-      <c r="G140" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B141" s="3">
-        <v>4</v>
-      </c>
-      <c r="C141" s="3">
-        <v>402</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E141" s="3">
-        <v>87</v>
-      </c>
-      <c r="F141" s="6">
-        <v>610</v>
-      </c>
-      <c r="G141" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B142" s="3">
-        <v>4</v>
-      </c>
-      <c r="C142" s="3">
-        <v>403</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E142" s="3">
-        <v>155</v>
-      </c>
-      <c r="F142" s="6">
-        <v>720</v>
-      </c>
-      <c r="G142" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B143" s="3">
-        <v>4</v>
-      </c>
-      <c r="C143" s="3">
-        <v>404</v>
-      </c>
       <c r="D143" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E143" s="3">
-        <v>109</v>
-      </c>
-      <c r="F143" s="6">
-        <v>640</v>
-      </c>
-      <c r="G143" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+        <v>214.98149182329016</v>
+      </c>
+      <c r="F143" s="7">
+        <v>1380</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H143" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B144" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C144" s="3">
-        <v>405</v>
+        <v>307</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E144" s="3">
-        <v>130</v>
-      </c>
-      <c r="F144" s="6">
-        <v>722</v>
-      </c>
-      <c r="G144" s="5" t="s">
-        <v>19</v>
+        <v>160.61835595992943</v>
+      </c>
+      <c r="F144" s="7">
+        <v>1210</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H144" s="2">
+        <v>239</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B145" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C145" s="3">
-        <v>406</v>
+        <v>308</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E145" s="3">
-        <v>40</v>
-      </c>
-      <c r="F145" s="6">
-        <v>575</v>
-      </c>
-      <c r="G145" s="5" t="s">
-        <v>19</v>
+        <v>269.34462768665088</v>
+      </c>
+      <c r="F145" s="7">
+        <v>1180</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H145" s="2">
+        <v>239</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F146" s="6"/>
-      <c r="G146" s="3"/>
+      <c r="A146" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" s="3">
+        <v>1</v>
+      </c>
+      <c r="C146" s="3">
+        <v>101</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" s="3">
+        <v>87</v>
+      </c>
+      <c r="F146" s="6">
+        <v>650</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H146" s="2">
+        <v>294</v>
+      </c>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B147" s="3">
         <v>1</v>
       </c>
       <c r="C147" s="3">
-        <v>401</v>
+        <v>102</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E147" s="3">
-        <v>105</v>
-      </c>
-      <c r="F147" s="7">
-        <v>590</v>
-      </c>
-      <c r="G147" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F147" s="6">
+        <v>670</v>
+      </c>
+      <c r="G147" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H147" s="2">
+        <v>294</v>
       </c>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
@@ -4166,25 +4622,28 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B148" s="3">
         <v>1</v>
       </c>
       <c r="C148" s="3">
-        <v>402</v>
+        <v>103</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E148" s="3">
-        <v>85</v>
-      </c>
-      <c r="F148" s="7">
-        <v>590</v>
-      </c>
-      <c r="G148" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F148" s="6">
+        <v>614</v>
+      </c>
+      <c r="G148" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H148" s="2">
+        <v>294</v>
       </c>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
@@ -4192,13 +4651,13 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B149" s="3">
         <v>1</v>
       </c>
       <c r="C149" s="3">
-        <v>403</v>
+        <v>104</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>6</v>
@@ -4206,11 +4665,14 @@
       <c r="E149" s="3">
         <v>65</v>
       </c>
-      <c r="F149" s="7">
-        <v>620</v>
-      </c>
-      <c r="G149" s="3" t="s">
+      <c r="F149" s="6">
+        <v>664</v>
+      </c>
+      <c r="G149" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H149" s="2">
+        <v>297</v>
       </c>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
@@ -4218,25 +4680,28 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B150" s="3">
         <v>1</v>
       </c>
       <c r="C150" s="3">
-        <v>404</v>
+        <v>105</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E150" s="3">
-        <v>130</v>
-      </c>
-      <c r="F150" s="7">
-        <v>620</v>
-      </c>
-      <c r="G150" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F150" s="6">
+        <v>660</v>
+      </c>
+      <c r="G150" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H150" s="2">
+        <v>297</v>
       </c>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
@@ -4244,25 +4709,28 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B151" s="3">
         <v>1</v>
       </c>
       <c r="C151" s="3">
-        <v>405</v>
+        <v>106</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E151" s="3">
         <v>130</v>
       </c>
-      <c r="F151" s="7">
-        <v>530</v>
-      </c>
-      <c r="G151" s="3" t="s">
+      <c r="F151" s="6">
+        <v>600</v>
+      </c>
+      <c r="G151" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H151" s="2">
+        <v>297</v>
       </c>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
@@ -4270,25 +4738,28 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B152" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C152" s="3">
-        <v>406</v>
+        <v>201</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E152" s="3">
-        <v>85</v>
-      </c>
-      <c r="F152" s="7">
-        <v>600</v>
-      </c>
-      <c r="G152" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F152" s="6">
+        <v>670</v>
+      </c>
+      <c r="G152" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H152" s="2">
+        <v>294</v>
       </c>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
@@ -4296,25 +4767,28 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B153" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C153" s="3">
-        <v>407</v>
+        <v>202</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E153" s="3">
-        <v>105</v>
-      </c>
-      <c r="F153" s="7">
-        <v>600</v>
-      </c>
-      <c r="G153" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F153" s="6">
+        <v>640</v>
+      </c>
+      <c r="G153" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H153" s="2">
+        <v>294</v>
       </c>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
@@ -4322,25 +4796,28 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B154" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C154" s="3">
-        <v>408</v>
+        <v>203</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E154" s="3">
-        <v>65</v>
-      </c>
-      <c r="F154" s="7">
-        <v>610</v>
-      </c>
-      <c r="G154" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F154" s="6">
+        <v>560</v>
+      </c>
+      <c r="G154" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H154" s="2">
+        <v>294</v>
       </c>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
@@ -4348,25 +4825,28 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B155" s="3">
         <v>2</v>
       </c>
       <c r="C155" s="3">
-        <v>501</v>
+        <v>204</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E155" s="3">
-        <v>130</v>
-      </c>
-      <c r="F155" s="7">
-        <v>510</v>
-      </c>
-      <c r="G155" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F155" s="6">
+        <v>700</v>
+      </c>
+      <c r="G155" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H155" s="2">
+        <v>297</v>
       </c>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
@@ -4374,25 +4854,28 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B156" s="3">
         <v>2</v>
       </c>
       <c r="C156" s="3">
-        <v>502</v>
+        <v>205</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E156" s="3">
-        <v>65</v>
-      </c>
-      <c r="F156" s="7">
-        <v>520</v>
-      </c>
-      <c r="G156" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F156" s="6">
+        <v>685</v>
+      </c>
+      <c r="G156" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H156" s="2">
+        <v>297</v>
       </c>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
@@ -4400,25 +4883,28 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B157" s="3">
         <v>2</v>
       </c>
       <c r="C157" s="3">
-        <v>503</v>
+        <v>206</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E157" s="3">
-        <v>85</v>
-      </c>
-      <c r="F157" s="7">
-        <v>510</v>
-      </c>
-      <c r="G157" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F157" s="6">
+        <v>700</v>
+      </c>
+      <c r="G157" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H157" s="2">
+        <v>297</v>
       </c>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
@@ -4426,25 +4912,28 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B158" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C158" s="3">
-        <v>504</v>
+        <v>301</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E158" s="3">
-        <v>105</v>
-      </c>
-      <c r="F158" s="7">
-        <v>510</v>
-      </c>
-      <c r="G158" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F158" s="6">
+        <v>580</v>
+      </c>
+      <c r="G158" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H158" s="2">
+        <v>294</v>
       </c>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
@@ -4452,25 +4941,28 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B159" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C159" s="3">
-        <v>505</v>
+        <v>302</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E159" s="3">
-        <v>105</v>
-      </c>
-      <c r="F159" s="7">
-        <v>530</v>
-      </c>
-      <c r="G159" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F159" s="6">
+        <v>620</v>
+      </c>
+      <c r="G159" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H159" s="2">
+        <v>294</v>
       </c>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
@@ -4478,25 +4970,28 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B160" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C160" s="3">
-        <v>506</v>
+        <v>303</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E160" s="3">
-        <v>65</v>
-      </c>
-      <c r="F160" s="7">
-        <v>540</v>
-      </c>
-      <c r="G160" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F160" s="6">
+        <v>610</v>
+      </c>
+      <c r="G160" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H160" s="2">
+        <v>294</v>
       </c>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
@@ -4504,25 +4999,28 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B161" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C161" s="3">
-        <v>507</v>
+        <v>304</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E161" s="3">
-        <v>85</v>
-      </c>
-      <c r="F161" s="7">
-        <v>530</v>
-      </c>
-      <c r="G161" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F161" s="6">
+        <v>600</v>
+      </c>
+      <c r="G161" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H161" s="2">
+        <v>297</v>
       </c>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
@@ -4530,25 +5028,28 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B162" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C162" s="3">
-        <v>508</v>
+        <v>305</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E162" s="3">
-        <v>130</v>
-      </c>
-      <c r="F162" s="7">
-        <v>550</v>
-      </c>
-      <c r="G162" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F162" s="6">
+        <v>680</v>
+      </c>
+      <c r="G162" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H162" s="2">
+        <v>297</v>
       </c>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
@@ -4556,25 +5057,28 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B163" s="3">
         <v>3</v>
       </c>
       <c r="C163" s="3">
-        <v>601</v>
+        <v>306</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E163" s="3">
-        <v>85</v>
-      </c>
-      <c r="F163" s="7">
-        <v>530</v>
-      </c>
-      <c r="G163" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F163" s="6">
+        <v>610</v>
+      </c>
+      <c r="G163" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H163" s="2">
+        <v>297</v>
       </c>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
@@ -4582,25 +5086,28 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B164" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C164" s="3">
-        <v>602</v>
+        <v>401</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E164" s="3">
-        <v>65</v>
-      </c>
-      <c r="F164" s="7">
-        <v>510</v>
-      </c>
-      <c r="G164" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F164" s="6">
+        <v>650</v>
+      </c>
+      <c r="G164" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H164" s="2">
+        <v>294</v>
       </c>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
@@ -4608,25 +5115,28 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B165" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C165" s="3">
-        <v>603</v>
+        <v>402</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E165" s="3">
-        <v>105</v>
-      </c>
-      <c r="F165" s="7">
-        <v>540</v>
-      </c>
-      <c r="G165" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F165" s="6">
+        <v>620</v>
+      </c>
+      <c r="G165" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H165" s="2">
+        <v>294</v>
       </c>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
@@ -4634,13 +5144,13 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B166" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C166" s="3">
-        <v>604</v>
+        <v>403</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>6</v>
@@ -4648,11 +5158,14 @@
       <c r="E166" s="3">
         <v>130</v>
       </c>
-      <c r="F166" s="7">
-        <v>520</v>
-      </c>
-      <c r="G166" s="3" t="s">
+      <c r="F166" s="6">
+        <v>540</v>
+      </c>
+      <c r="G166" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H166" s="2">
+        <v>294</v>
       </c>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
@@ -4660,25 +5173,28 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B167" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C167" s="3">
-        <v>605</v>
+        <v>404</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E167" s="3">
-        <v>105</v>
-      </c>
-      <c r="F167" s="7">
-        <v>550</v>
-      </c>
-      <c r="G167" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F167" s="6">
+        <v>697</v>
+      </c>
+      <c r="G167" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H167" s="2">
+        <v>297</v>
       </c>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
@@ -4686,25 +5202,28 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B168" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C168" s="3">
-        <v>606</v>
+        <v>405</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E168" s="3">
-        <v>65</v>
-      </c>
-      <c r="F168" s="7">
-        <v>550</v>
-      </c>
-      <c r="G168" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F168" s="6">
+        <v>720</v>
+      </c>
+      <c r="G168" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H168" s="2">
+        <v>297</v>
       </c>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
@@ -4712,25 +5231,28 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B169" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C169" s="3">
-        <v>607</v>
+        <v>406</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E169" s="3">
-        <v>130</v>
-      </c>
-      <c r="F169" s="7">
-        <v>570</v>
-      </c>
-      <c r="G169" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F169" s="6">
+        <v>600</v>
+      </c>
+      <c r="G169" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H169" s="2">
+        <v>297</v>
       </c>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
@@ -4738,25 +5260,28 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B170" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C170" s="3">
-        <v>608</v>
+        <v>101</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E170" s="3">
-        <v>85</v>
-      </c>
-      <c r="F170" s="7">
-        <v>560</v>
-      </c>
-      <c r="G170" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F170" s="6">
+        <v>510</v>
+      </c>
+      <c r="G170" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H170" s="2">
+        <v>294</v>
       </c>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
@@ -4764,13 +5289,13 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B171" s="3">
         <v>1</v>
       </c>
       <c r="C171" s="3">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>6</v>
@@ -4778,11 +5303,14 @@
       <c r="E171" s="3">
         <v>65</v>
       </c>
-      <c r="F171" s="7">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="G171" s="3" t="s">
+      <c r="F171" s="6">
+        <v>540</v>
+      </c>
+      <c r="G171" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H171" s="2">
+        <v>294</v>
       </c>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
@@ -4790,25 +5318,28 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B172" s="3">
         <v>1</v>
       </c>
       <c r="C172" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E172" s="3">
-        <v>130</v>
-      </c>
-      <c r="F172" s="7">
-        <v>1.18</v>
-      </c>
-      <c r="G172" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F172" s="6">
+        <v>610</v>
+      </c>
+      <c r="G172" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H172" s="2">
+        <v>294</v>
       </c>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
@@ -4816,25 +5347,28 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B173" s="3">
         <v>1</v>
       </c>
       <c r="C173" s="3">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E173" s="3">
-        <v>87</v>
-      </c>
-      <c r="F173" s="7">
-        <v>1.23</v>
-      </c>
-      <c r="G173" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F173" s="6">
+        <v>400</v>
+      </c>
+      <c r="G173" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H173" s="2">
+        <v>305</v>
       </c>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
@@ -4842,25 +5376,28 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B174" s="3">
         <v>1</v>
       </c>
       <c r="C174" s="3">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E174" s="3">
-        <v>109</v>
-      </c>
-      <c r="F174" s="7">
-        <v>1.25</v>
-      </c>
-      <c r="G174" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F174" s="6">
+        <v>310</v>
+      </c>
+      <c r="G174" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H174" s="2">
+        <v>305</v>
       </c>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
@@ -4868,25 +5405,28 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B175" s="3">
         <v>1</v>
       </c>
       <c r="C175" s="3">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E175" s="3">
-        <v>87</v>
-      </c>
-      <c r="F175" s="7">
-        <v>1.22</v>
-      </c>
-      <c r="G175" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F175" s="6">
+        <v>600</v>
+      </c>
+      <c r="G175" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H175" s="2">
+        <v>305</v>
       </c>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
@@ -4894,25 +5434,28 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B176" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C176" s="3">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E176" s="3">
-        <v>65</v>
-      </c>
-      <c r="F176" s="7">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="G176" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F176" s="6">
+        <v>610</v>
+      </c>
+      <c r="G176" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H176" s="2">
+        <v>294</v>
       </c>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
@@ -4920,25 +5463,28 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B177" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C177" s="3">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E177" s="3">
-        <v>130</v>
-      </c>
-      <c r="F177" s="7">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="G177" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F177" s="6">
+        <v>600</v>
+      </c>
+      <c r="G177" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H177" s="2">
+        <v>294</v>
       </c>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
@@ -4946,25 +5492,28 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B178" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C178" s="3">
-        <v>108</v>
+        <v>203</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E178" s="3">
-        <v>109</v>
-      </c>
-      <c r="F178" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="G178" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F178" s="6">
+        <v>630</v>
+      </c>
+      <c r="G178" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H178" s="2">
+        <v>294</v>
       </c>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
@@ -4972,13 +5521,13 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B179" s="3">
         <v>2</v>
       </c>
       <c r="C179" s="3">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>6</v>
@@ -4986,11 +5535,14 @@
       <c r="E179" s="3">
         <v>65</v>
       </c>
-      <c r="F179" s="7">
-        <v>1.23</v>
-      </c>
-      <c r="G179" s="3" t="s">
+      <c r="F179" s="6">
+        <v>510</v>
+      </c>
+      <c r="G179" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H179" s="2">
+        <v>305</v>
       </c>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
@@ -4998,25 +5550,28 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B180" s="3">
         <v>2</v>
       </c>
       <c r="C180" s="3">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E180" s="3">
-        <v>87</v>
-      </c>
-      <c r="F180" s="7">
-        <v>1.23</v>
-      </c>
-      <c r="G180" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F180" s="6">
+        <v>650</v>
+      </c>
+      <c r="G180" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H180" s="2">
+        <v>305</v>
       </c>
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
@@ -5024,25 +5579,28 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B181" s="3">
         <v>2</v>
       </c>
       <c r="C181" s="3">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E181" s="3">
-        <v>130</v>
-      </c>
-      <c r="F181" s="7">
-        <v>1.22</v>
-      </c>
-      <c r="G181" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F181" s="6">
+        <v>690</v>
+      </c>
+      <c r="G181" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H181" s="2">
+        <v>305</v>
       </c>
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
@@ -5050,25 +5608,28 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B182" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C182" s="3">
-        <v>204</v>
+        <v>301</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E182" s="3">
-        <v>109</v>
-      </c>
-      <c r="F182" s="7">
-        <v>1.37</v>
-      </c>
-      <c r="G182" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F182" s="6">
+        <v>600</v>
+      </c>
+      <c r="G182" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H182" s="2">
+        <v>294</v>
       </c>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
@@ -5076,25 +5637,28 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B183" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C183" s="3">
-        <v>205</v>
+        <v>302</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E183" s="3">
-        <v>109</v>
-      </c>
-      <c r="F183" s="7">
-        <v>1.19</v>
-      </c>
-      <c r="G183" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F183" s="6">
+        <v>660</v>
+      </c>
+      <c r="G183" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H183" s="2">
+        <v>294</v>
       </c>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
@@ -5102,25 +5666,28 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B184" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C184" s="3">
-        <v>206</v>
+        <v>303</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E184" s="3">
-        <v>87</v>
-      </c>
-      <c r="F184" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="G184" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F184" s="6">
+        <v>670</v>
+      </c>
+      <c r="G184" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H184" s="2">
+        <v>294</v>
       </c>
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
@@ -5128,25 +5695,28 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B185" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C185" s="3">
-        <v>207</v>
+        <v>304</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E185" s="3">
-        <v>130</v>
-      </c>
-      <c r="F185" s="7">
-        <v>1.22</v>
-      </c>
-      <c r="G185" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F185" s="6">
+        <v>610</v>
+      </c>
+      <c r="G185" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H185" s="2">
+        <v>305</v>
       </c>
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
@@ -5154,25 +5724,28 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B186" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C186" s="3">
-        <v>208</v>
+        <v>305</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E186" s="3">
-        <v>65</v>
-      </c>
-      <c r="F186" s="7">
-        <v>1.23</v>
-      </c>
-      <c r="G186" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F186" s="6">
+        <v>520</v>
+      </c>
+      <c r="G186" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H186" s="2">
+        <v>305</v>
       </c>
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
@@ -5180,13 +5753,13 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B187" s="3">
         <v>3</v>
       </c>
       <c r="C187" s="3">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>6</v>
@@ -5194,11 +5767,14 @@
       <c r="E187" s="3">
         <v>130</v>
       </c>
-      <c r="F187" s="7">
-        <v>1.23</v>
-      </c>
-      <c r="G187" s="3" t="s">
+      <c r="F187" s="6">
+        <v>520</v>
+      </c>
+      <c r="G187" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H187" s="2">
+        <v>305</v>
       </c>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
@@ -5206,13 +5782,13 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B188" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C188" s="3">
-        <v>302</v>
+        <v>401</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>6</v>
@@ -5220,11 +5796,14 @@
       <c r="E188" s="3">
         <v>65</v>
       </c>
-      <c r="F188" s="7">
-        <v>1.22</v>
-      </c>
-      <c r="G188" s="3" t="s">
+      <c r="F188" s="6">
+        <v>590</v>
+      </c>
+      <c r="G188" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H188" s="2">
+        <v>306</v>
       </c>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
@@ -5232,13 +5811,13 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B189" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C189" s="3">
-        <v>303</v>
+        <v>402</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>6</v>
@@ -5246,11 +5825,14 @@
       <c r="E189" s="3">
         <v>87</v>
       </c>
-      <c r="F189" s="7">
-        <v>1.22</v>
-      </c>
-      <c r="G189" s="3" t="s">
+      <c r="F189" s="6">
+        <v>610</v>
+      </c>
+      <c r="G189" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H189" s="2">
+        <v>306</v>
       </c>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
@@ -5258,25 +5840,28 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B190" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C190" s="3">
-        <v>304</v>
+        <v>403</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E190" s="3">
-        <v>109</v>
-      </c>
-      <c r="F190" s="7">
-        <v>1.19</v>
-      </c>
-      <c r="G190" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F190" s="6">
+        <v>720</v>
+      </c>
+      <c r="G190" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H190" s="2">
+        <v>306</v>
       </c>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
@@ -5284,25 +5869,28 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B191" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C191" s="3">
+        <v>404</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E191" s="3">
+        <v>109</v>
+      </c>
+      <c r="F191" s="6">
+        <v>640</v>
+      </c>
+      <c r="G191" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H191" s="2">
         <v>305</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E191" s="3">
-        <v>130</v>
-      </c>
-      <c r="F191" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="G191" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
@@ -5310,25 +5898,28 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B192" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C192" s="3">
-        <v>306</v>
+        <v>405</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E192" s="3">
-        <v>87</v>
-      </c>
-      <c r="F192" s="7">
-        <v>1.38</v>
-      </c>
-      <c r="G192" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F192" s="6">
+        <v>722</v>
+      </c>
+      <c r="G192" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H192" s="2">
+        <v>305</v>
       </c>
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
@@ -5336,60 +5927,37 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B193" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C193" s="3">
-        <v>307</v>
+        <v>406</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E193" s="3">
-        <v>65</v>
-      </c>
-      <c r="F193" s="7">
-        <v>1.21</v>
-      </c>
-      <c r="G193" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F193" s="6">
+        <v>575</v>
+      </c>
+      <c r="G193" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H193" s="2">
+        <v>305</v>
       </c>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A194" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B194" s="3">
-        <v>3</v>
-      </c>
-      <c r="C194" s="3">
-        <v>308</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E194" s="3">
-        <v>109</v>
-      </c>
-      <c r="F194" s="7">
-        <v>1.18</v>
-      </c>
-      <c r="G194" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J195" s="1"/>
-      <c r="K195" s="1"/>
-      <c r="L195" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data/All_Yields_SR_Soybean.xlsx
+++ b/Data/All_Yields_SR_Soybean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milag\OneDrive - Kansas State University\Documents\GitHub\Soy_Mili_Vale\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F0F472-D911-4A4F-B7F9-D5230CF92593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AC9739-A21A-4F0C-8BDC-AEA21A0215E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{81CF100A-254D-8B4C-A51B-D4F52F208F82}"/>
   </bookViews>
@@ -486,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54A4690-43F4-A14B-B6D5-32A9C77A85E8}">
   <dimension ref="A1:L194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I149" sqref="I149"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F154" sqref="F154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1234,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="3">
-        <v>401</v>
+        <v>101</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>7</v>
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="3">
-        <v>402</v>
+        <v>102</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>7</v>
@@ -1292,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="3">
-        <v>403</v>
+        <v>103</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>6</v>
@@ -1321,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="3">
-        <v>404</v>
+        <v>104</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>6</v>
@@ -1350,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="3">
-        <v>405</v>
+        <v>105</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>7</v>
@@ -1379,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="3">
-        <v>406</v>
+        <v>106</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>7</v>
@@ -1408,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="3">
-        <v>407</v>
+        <v>107</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>6</v>
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="3">
-        <v>408</v>
+        <v>108</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>6</v>
@@ -1466,7 +1466,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="3">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>6</v>
@@ -1495,7 +1495,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="3">
-        <v>502</v>
+        <v>202</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>6</v>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="3">
-        <v>503</v>
+        <v>203</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>7</v>
@@ -1553,7 +1553,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="3">
-        <v>504</v>
+        <v>204</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>7</v>
@@ -1582,7 +1582,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="3">
-        <v>505</v>
+        <v>205</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>6</v>
@@ -1611,7 +1611,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="3">
-        <v>506</v>
+        <v>206</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>6</v>
@@ -1640,7 +1640,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="3">
-        <v>507</v>
+        <v>207</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>7</v>
@@ -1669,7 +1669,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="3">
-        <v>508</v>
+        <v>208</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>7</v>
@@ -1698,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="3">
-        <v>601</v>
+        <v>301</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>7</v>
@@ -1727,7 +1727,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="3">
-        <v>602</v>
+        <v>302</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>7</v>
@@ -1756,7 +1756,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="3">
-        <v>603</v>
+        <v>303</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>6</v>
@@ -1785,7 +1785,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="3">
-        <v>604</v>
+        <v>304</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>6</v>
@@ -1814,7 +1814,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="3">
-        <v>605</v>
+        <v>305</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>7</v>
@@ -1843,7 +1843,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="3">
-        <v>606</v>
+        <v>306</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>7</v>
@@ -1872,7 +1872,7 @@
         <v>3</v>
       </c>
       <c r="C48" s="3">
-        <v>607</v>
+        <v>307</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>6</v>
@@ -1901,7 +1901,7 @@
         <v>3</v>
       </c>
       <c r="C49" s="3">
-        <v>608</v>
+        <v>308</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>6</v>
@@ -3322,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="3">
-        <v>401</v>
+        <v>101</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>6</v>
@@ -3348,7 +3348,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="3">
-        <v>402</v>
+        <v>102</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>6</v>
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="3">
-        <v>403</v>
+        <v>103</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>6</v>
@@ -3400,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="3">
-        <v>404</v>
+        <v>104</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>6</v>
@@ -3426,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="3">
-        <v>405</v>
+        <v>105</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>7</v>
@@ -3452,7 +3452,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="3">
-        <v>406</v>
+        <v>106</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>7</v>
@@ -3478,7 +3478,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="3">
-        <v>407</v>
+        <v>107</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>7</v>
@@ -3504,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="3">
-        <v>408</v>
+        <v>108</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>7</v>
@@ -3530,7 +3530,7 @@
         <v>2</v>
       </c>
       <c r="C106" s="3">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>6</v>
@@ -3556,7 +3556,7 @@
         <v>2</v>
       </c>
       <c r="C107" s="3">
-        <v>502</v>
+        <v>202</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>6</v>
@@ -3582,7 +3582,7 @@
         <v>2</v>
       </c>
       <c r="C108" s="3">
-        <v>503</v>
+        <v>203</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>6</v>
@@ -3608,7 +3608,7 @@
         <v>2</v>
       </c>
       <c r="C109" s="3">
-        <v>504</v>
+        <v>204</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>6</v>
@@ -3634,7 +3634,7 @@
         <v>2</v>
       </c>
       <c r="C110" s="3">
-        <v>505</v>
+        <v>205</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>7</v>
@@ -3660,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="C111" s="3">
-        <v>506</v>
+        <v>206</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>7</v>
@@ -3686,7 +3686,7 @@
         <v>2</v>
       </c>
       <c r="C112" s="3">
-        <v>507</v>
+        <v>207</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>7</v>
@@ -3712,7 +3712,7 @@
         <v>2</v>
       </c>
       <c r="C113" s="3">
-        <v>508</v>
+        <v>208</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>7</v>
@@ -3738,7 +3738,7 @@
         <v>3</v>
       </c>
       <c r="C114" s="3">
-        <v>601</v>
+        <v>301</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>6</v>
@@ -3764,7 +3764,7 @@
         <v>3</v>
       </c>
       <c r="C115" s="3">
-        <v>602</v>
+        <v>302</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>6</v>
@@ -3790,7 +3790,7 @@
         <v>3</v>
       </c>
       <c r="C116" s="3">
-        <v>603</v>
+        <v>303</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>6</v>
@@ -3816,7 +3816,7 @@
         <v>3</v>
       </c>
       <c r="C117" s="3">
-        <v>604</v>
+        <v>304</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>6</v>
@@ -3842,7 +3842,7 @@
         <v>3</v>
       </c>
       <c r="C118" s="3">
-        <v>605</v>
+        <v>305</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>7</v>
@@ -3868,7 +3868,7 @@
         <v>3</v>
       </c>
       <c r="C119" s="3">
-        <v>606</v>
+        <v>306</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>7</v>
@@ -3894,7 +3894,7 @@
         <v>3</v>
       </c>
       <c r="C120" s="3">
-        <v>607</v>
+        <v>307</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>7</v>
@@ -3920,7 +3920,7 @@
         <v>3</v>
       </c>
       <c r="C121" s="3">
-        <v>608</v>
+        <v>308</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>7</v>
@@ -4575,8 +4575,8 @@
       <c r="D146" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E146" s="3">
-        <v>87</v>
+      <c r="E146" s="2">
+        <v>214.98149182329016</v>
       </c>
       <c r="F146" s="6">
         <v>650</v>
@@ -4604,8 +4604,8 @@
       <c r="D147" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E147" s="3">
-        <v>155</v>
+      <c r="E147" s="2">
+        <v>383.01300267367787</v>
       </c>
       <c r="F147" s="6">
         <v>670</v>
@@ -4633,8 +4633,8 @@
       <c r="D148" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E148" s="3">
-        <v>109</v>
+      <c r="E148" s="2">
+        <v>269.34462768665088</v>
       </c>
       <c r="F148" s="6">
         <v>614</v>
@@ -4662,8 +4662,8 @@
       <c r="D149" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E149" s="3">
-        <v>65</v>
+      <c r="E149" s="2">
+        <v>160.61835595992943</v>
       </c>
       <c r="F149" s="6">
         <v>664</v>
@@ -4691,8 +4691,8 @@
       <c r="D150" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E150" s="3">
-        <v>40</v>
+      <c r="E150" s="2">
+        <v>98.842065206110419</v>
       </c>
       <c r="F150" s="6">
         <v>660</v>
@@ -4720,8 +4720,8 @@
       <c r="D151" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E151" s="3">
-        <v>130</v>
+      <c r="E151" s="2">
+        <v>321.23671191985886</v>
       </c>
       <c r="F151" s="6">
         <v>600</v>
@@ -4749,8 +4749,8 @@
       <c r="D152" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E152" s="3">
-        <v>87</v>
+      <c r="E152" s="2">
+        <v>214.98149182329016</v>
       </c>
       <c r="F152" s="6">
         <v>670</v>
@@ -4778,8 +4778,8 @@
       <c r="D153" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E153" s="3">
-        <v>65</v>
+      <c r="E153" s="2">
+        <v>160.61835595992943</v>
       </c>
       <c r="F153" s="6">
         <v>640</v>
@@ -4807,8 +4807,8 @@
       <c r="D154" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E154" s="3">
-        <v>109</v>
+      <c r="E154" s="2">
+        <v>269.34462768665088</v>
       </c>
       <c r="F154" s="6">
         <v>560</v>
@@ -4836,8 +4836,8 @@
       <c r="D155" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E155" s="3">
-        <v>40</v>
+      <c r="E155" s="2">
+        <v>98.842065206110419</v>
       </c>
       <c r="F155" s="6">
         <v>700</v>
@@ -4865,8 +4865,8 @@
       <c r="D156" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E156" s="3">
-        <v>130</v>
+      <c r="E156" s="2">
+        <v>321.23671191985886</v>
       </c>
       <c r="F156" s="6">
         <v>685</v>
@@ -4894,8 +4894,8 @@
       <c r="D157" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E157" s="3">
-        <v>155</v>
+      <c r="E157" s="2">
+        <v>383.01300267367787</v>
       </c>
       <c r="F157" s="6">
         <v>700</v>
@@ -4923,8 +4923,8 @@
       <c r="D158" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E158" s="3">
-        <v>87</v>
+      <c r="E158" s="2">
+        <v>214.98149182329016</v>
       </c>
       <c r="F158" s="6">
         <v>580</v>
@@ -4952,8 +4952,8 @@
       <c r="D159" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E159" s="3">
-        <v>130</v>
+      <c r="E159" s="2">
+        <v>321.23671191985886</v>
       </c>
       <c r="F159" s="6">
         <v>620</v>
@@ -4981,8 +4981,8 @@
       <c r="D160" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E160" s="3">
-        <v>155</v>
+      <c r="E160" s="2">
+        <v>383.01300267367787</v>
       </c>
       <c r="F160" s="6">
         <v>610</v>
@@ -5010,8 +5010,8 @@
       <c r="D161" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E161" s="3">
-        <v>109</v>
+      <c r="E161" s="2">
+        <v>269.34462768665088</v>
       </c>
       <c r="F161" s="6">
         <v>600</v>
@@ -5039,8 +5039,8 @@
       <c r="D162" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E162" s="3">
-        <v>65</v>
+      <c r="E162" s="2">
+        <v>160.61835595992943</v>
       </c>
       <c r="F162" s="6">
         <v>680</v>
@@ -5068,8 +5068,8 @@
       <c r="D163" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E163" s="3">
-        <v>40</v>
+      <c r="E163" s="2">
+        <v>98.842065206110419</v>
       </c>
       <c r="F163" s="6">
         <v>610</v>
@@ -5097,8 +5097,8 @@
       <c r="D164" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E164" s="3">
-        <v>155</v>
+      <c r="E164" s="2">
+        <v>383.01300267367787</v>
       </c>
       <c r="F164" s="6">
         <v>650</v>
@@ -5126,8 +5126,8 @@
       <c r="D165" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E165" s="3">
-        <v>87</v>
+      <c r="E165" s="2">
+        <v>214.98149182329016</v>
       </c>
       <c r="F165" s="6">
         <v>620</v>
@@ -5155,8 +5155,8 @@
       <c r="D166" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E166" s="3">
-        <v>130</v>
+      <c r="E166" s="2">
+        <v>321.23671191985886</v>
       </c>
       <c r="F166" s="6">
         <v>540</v>
@@ -5184,8 +5184,8 @@
       <c r="D167" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E167" s="3">
-        <v>65</v>
+      <c r="E167" s="2">
+        <v>160.61835595992943</v>
       </c>
       <c r="F167" s="6">
         <v>697</v>
@@ -5213,8 +5213,8 @@
       <c r="D168" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E168" s="3">
-        <v>109</v>
+      <c r="E168" s="2">
+        <v>269.34462768665088</v>
       </c>
       <c r="F168" s="6">
         <v>720</v>
@@ -5242,8 +5242,8 @@
       <c r="D169" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E169" s="3">
-        <v>40</v>
+      <c r="E169" s="2">
+        <v>98.842065206110419</v>
       </c>
       <c r="F169" s="6">
         <v>600</v>
@@ -5271,8 +5271,8 @@
       <c r="D170" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E170" s="3">
-        <v>130</v>
+      <c r="E170" s="2">
+        <v>321.23671191985886</v>
       </c>
       <c r="F170" s="6">
         <v>510</v>
@@ -5300,8 +5300,8 @@
       <c r="D171" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E171" s="3">
-        <v>65</v>
+      <c r="E171" s="2">
+        <v>160.61835595992943</v>
       </c>
       <c r="F171" s="6">
         <v>540</v>
@@ -5329,8 +5329,8 @@
       <c r="D172" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E172" s="3">
-        <v>109</v>
+      <c r="E172" s="2">
+        <v>269.34462768665088</v>
       </c>
       <c r="F172" s="6">
         <v>610</v>
@@ -5358,8 +5358,8 @@
       <c r="D173" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E173" s="3">
-        <v>155</v>
+      <c r="E173" s="2">
+        <v>383.01300267367787</v>
       </c>
       <c r="F173" s="6">
         <v>400</v>
@@ -5387,8 +5387,8 @@
       <c r="D174" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E174" s="3">
-        <v>87</v>
+      <c r="E174" s="2">
+        <v>214.98149182329016</v>
       </c>
       <c r="F174" s="6">
         <v>310</v>
@@ -5416,8 +5416,8 @@
       <c r="D175" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E175" s="3">
-        <v>40</v>
+      <c r="E175" s="2">
+        <v>98.842065206110419</v>
       </c>
       <c r="F175" s="6">
         <v>600</v>
@@ -5445,8 +5445,8 @@
       <c r="D176" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E176" s="3">
-        <v>109</v>
+      <c r="E176" s="2">
+        <v>269.34462768665088</v>
       </c>
       <c r="F176" s="6">
         <v>610</v>
@@ -5474,8 +5474,8 @@
       <c r="D177" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E177" s="3">
-        <v>87</v>
+      <c r="E177" s="2">
+        <v>214.98149182329016</v>
       </c>
       <c r="F177" s="6">
         <v>600</v>
@@ -5503,8 +5503,8 @@
       <c r="D178" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E178" s="3">
-        <v>40</v>
+      <c r="E178" s="2">
+        <v>98.842065206110419</v>
       </c>
       <c r="F178" s="6">
         <v>630</v>
@@ -5532,8 +5532,8 @@
       <c r="D179" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E179" s="3">
-        <v>65</v>
+      <c r="E179" s="2">
+        <v>160.61835595992943</v>
       </c>
       <c r="F179" s="6">
         <v>510</v>
@@ -5561,8 +5561,8 @@
       <c r="D180" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E180" s="3">
-        <v>130</v>
+      <c r="E180" s="2">
+        <v>321.23671191985886</v>
       </c>
       <c r="F180" s="6">
         <v>650</v>
@@ -5590,8 +5590,8 @@
       <c r="D181" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E181" s="3">
-        <v>155</v>
+      <c r="E181" s="2">
+        <v>383.01300267367787</v>
       </c>
       <c r="F181" s="6">
         <v>690</v>
@@ -5619,8 +5619,8 @@
       <c r="D182" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E182" s="3">
-        <v>65</v>
+      <c r="E182" s="2">
+        <v>160.61835595992943</v>
       </c>
       <c r="F182" s="6">
         <v>600</v>
@@ -5648,8 +5648,8 @@
       <c r="D183" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E183" s="3">
-        <v>87</v>
+      <c r="E183" s="2">
+        <v>214.98149182329016</v>
       </c>
       <c r="F183" s="6">
         <v>660</v>
@@ -5677,8 +5677,8 @@
       <c r="D184" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E184" s="3">
-        <v>40</v>
+      <c r="E184" s="2">
+        <v>98.842065206110419</v>
       </c>
       <c r="F184" s="6">
         <v>670</v>
@@ -5706,8 +5706,8 @@
       <c r="D185" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E185" s="3">
-        <v>109</v>
+      <c r="E185" s="2">
+        <v>269.34462768665088</v>
       </c>
       <c r="F185" s="6">
         <v>610</v>
@@ -5735,8 +5735,8 @@
       <c r="D186" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E186" s="3">
-        <v>155</v>
+      <c r="E186" s="2">
+        <v>383.01300267367787</v>
       </c>
       <c r="F186" s="6">
         <v>520</v>
@@ -5764,8 +5764,8 @@
       <c r="D187" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E187" s="3">
-        <v>130</v>
+      <c r="E187" s="2">
+        <v>321.23671191985886</v>
       </c>
       <c r="F187" s="6">
         <v>520</v>
@@ -5793,8 +5793,8 @@
       <c r="D188" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E188" s="3">
-        <v>65</v>
+      <c r="E188" s="2">
+        <v>160.61835595992943</v>
       </c>
       <c r="F188" s="6">
         <v>590</v>
@@ -5822,8 +5822,8 @@
       <c r="D189" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E189" s="3">
-        <v>87</v>
+      <c r="E189" s="2">
+        <v>214.98149182329016</v>
       </c>
       <c r="F189" s="6">
         <v>610</v>
@@ -5851,8 +5851,8 @@
       <c r="D190" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E190" s="3">
-        <v>155</v>
+      <c r="E190" s="2">
+        <v>383.01300267367787</v>
       </c>
       <c r="F190" s="6">
         <v>720</v>
@@ -5880,8 +5880,8 @@
       <c r="D191" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E191" s="3">
-        <v>109</v>
+      <c r="E191" s="2">
+        <v>269.34462768665088</v>
       </c>
       <c r="F191" s="6">
         <v>640</v>
@@ -5909,8 +5909,8 @@
       <c r="D192" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E192" s="3">
-        <v>130</v>
+      <c r="E192" s="2">
+        <v>321.23671191985886</v>
       </c>
       <c r="F192" s="6">
         <v>722</v>
@@ -5938,8 +5938,8 @@
       <c r="D193" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E193" s="3">
-        <v>40</v>
+      <c r="E193" s="2">
+        <v>98.842065206110419</v>
       </c>
       <c r="F193" s="6">
         <v>575</v>

--- a/Data/All_Yields_SR_Soybean.xlsx
+++ b/Data/All_Yields_SR_Soybean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milag\OneDrive - Kansas State University\Documents\GitHub\Soy_Mili_Vale\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AC9739-A21A-4F0C-8BDC-AEA21A0215E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A52F8D0-1883-4136-8CF4-F3D8B8F5A640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{81CF100A-254D-8B4C-A51B-D4F52F208F82}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="21">
   <si>
     <t>Study</t>
   </si>
@@ -100,9 +100,6 @@
   <si>
     <t>Distance (ft) * 25 ft</t>
   </si>
-  <si>
-    <t>488,6</t>
-  </si>
 </sst>
 </file>
 
@@ -126,12 +123,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -146,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -170,6 +173,16 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54A4690-43F4-A14B-B6D5-32A9C77A85E8}">
   <dimension ref="A1:L194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F154" sqref="F154"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G140" sqref="G140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -552,7 +565,7 @@
       <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="9">
         <v>300</v>
       </c>
       <c r="J2" s="1"/>
@@ -581,7 +594,7 @@
       <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="9">
         <v>300</v>
       </c>
       <c r="J3" s="1"/>
@@ -610,7 +623,7 @@
       <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="9">
         <v>300</v>
       </c>
       <c r="J4" s="1"/>
@@ -639,7 +652,7 @@
       <c r="G5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="9">
         <v>300</v>
       </c>
       <c r="J5" s="1"/>
@@ -668,7 +681,7 @@
       <c r="G6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="9">
         <v>300</v>
       </c>
       <c r="J6" s="1"/>
@@ -697,7 +710,7 @@
       <c r="G7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="9">
         <v>300</v>
       </c>
       <c r="J7" s="1"/>
@@ -726,7 +739,7 @@
       <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="9">
         <v>300</v>
       </c>
       <c r="J8" s="1"/>
@@ -755,7 +768,7 @@
       <c r="G9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="9">
         <v>300</v>
       </c>
       <c r="J9" s="1"/>
@@ -784,7 +797,7 @@
       <c r="G10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="9">
         <v>300</v>
       </c>
       <c r="J10" s="1"/>
@@ -813,7 +826,7 @@
       <c r="G11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="9">
         <v>300</v>
       </c>
       <c r="J11" s="1"/>
@@ -842,7 +855,7 @@
       <c r="G12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="9">
         <v>300</v>
       </c>
       <c r="J12" s="1"/>
@@ -871,7 +884,7 @@
       <c r="G13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="9">
         <v>300</v>
       </c>
       <c r="J13" s="1"/>
@@ -900,7 +913,7 @@
       <c r="G14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="9">
         <v>300</v>
       </c>
       <c r="J14" s="1"/>
@@ -929,7 +942,7 @@
       <c r="G15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="9">
         <v>300</v>
       </c>
       <c r="J15" s="1"/>
@@ -958,7 +971,7 @@
       <c r="G16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="9">
         <v>300</v>
       </c>
       <c r="J16" s="1"/>
@@ -987,7 +1000,7 @@
       <c r="G17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="9">
         <v>300</v>
       </c>
       <c r="J17" s="1"/>
@@ -1016,7 +1029,7 @@
       <c r="G18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="9">
         <v>300</v>
       </c>
       <c r="J18" s="1"/>
@@ -1045,7 +1058,7 @@
       <c r="G19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="9">
         <v>300</v>
       </c>
       <c r="J19" s="1"/>
@@ -1074,7 +1087,7 @@
       <c r="G20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="9">
         <v>300</v>
       </c>
       <c r="J20" s="1"/>
@@ -1103,7 +1116,7 @@
       <c r="G21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="9">
         <v>300</v>
       </c>
       <c r="J21" s="1"/>
@@ -1132,7 +1145,7 @@
       <c r="G22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="9">
         <v>300</v>
       </c>
       <c r="J22" s="1"/>
@@ -1161,7 +1174,7 @@
       <c r="G23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="9">
         <v>300</v>
       </c>
       <c r="J23" s="1"/>
@@ -1190,7 +1203,7 @@
       <c r="G24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="9">
         <v>300</v>
       </c>
       <c r="J24" s="1"/>
@@ -1219,7 +1232,7 @@
       <c r="G25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="9">
         <v>300</v>
       </c>
       <c r="J25" s="1"/>
@@ -1248,7 +1261,7 @@
       <c r="G26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="9">
         <v>300</v>
       </c>
       <c r="J26" s="1"/>
@@ -1277,7 +1290,7 @@
       <c r="G27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="9">
         <v>300</v>
       </c>
       <c r="J27" s="1"/>
@@ -1306,7 +1319,7 @@
       <c r="G28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="9">
         <v>300</v>
       </c>
       <c r="J28" s="1"/>
@@ -1335,7 +1348,7 @@
       <c r="G29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="9">
         <v>300</v>
       </c>
       <c r="J29" s="1"/>
@@ -1364,7 +1377,7 @@
       <c r="G30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="9">
         <v>300</v>
       </c>
       <c r="J30" s="1"/>
@@ -1393,7 +1406,7 @@
       <c r="G31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="9">
         <v>300</v>
       </c>
       <c r="J31" s="1"/>
@@ -1422,7 +1435,7 @@
       <c r="G32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="9">
         <v>300</v>
       </c>
       <c r="J32" s="1"/>
@@ -1451,7 +1464,7 @@
       <c r="G33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="9">
         <v>300</v>
       </c>
       <c r="J33" s="1"/>
@@ -1480,7 +1493,7 @@
       <c r="G34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="9">
         <v>300</v>
       </c>
       <c r="J34" s="1"/>
@@ -1509,7 +1522,7 @@
       <c r="G35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="9">
         <v>300</v>
       </c>
       <c r="J35" s="1"/>
@@ -1538,7 +1551,7 @@
       <c r="G36" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="9">
         <v>300</v>
       </c>
       <c r="J36" s="1"/>
@@ -1567,7 +1580,7 @@
       <c r="G37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="9">
         <v>300</v>
       </c>
       <c r="J37" s="1"/>
@@ -1596,7 +1609,7 @@
       <c r="G38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="9">
         <v>300</v>
       </c>
       <c r="J38" s="1"/>
@@ -1625,7 +1638,7 @@
       <c r="G39" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="9">
         <v>300</v>
       </c>
       <c r="J39" s="1"/>
@@ -1654,7 +1667,7 @@
       <c r="G40" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="9">
         <v>300</v>
       </c>
       <c r="J40" s="1"/>
@@ -1683,7 +1696,7 @@
       <c r="G41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="9">
         <v>300</v>
       </c>
       <c r="J41" s="1"/>
@@ -1712,7 +1725,7 @@
       <c r="G42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="9">
         <v>300</v>
       </c>
       <c r="J42" s="1"/>
@@ -1741,7 +1754,7 @@
       <c r="G43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="9">
         <v>300</v>
       </c>
       <c r="J43" s="1"/>
@@ -1770,7 +1783,7 @@
       <c r="G44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="9">
         <v>300</v>
       </c>
       <c r="J44" s="1"/>
@@ -1799,7 +1812,7 @@
       <c r="G45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="9">
         <v>300</v>
       </c>
       <c r="J45" s="1"/>
@@ -1828,7 +1841,7 @@
       <c r="G46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="9">
         <v>300</v>
       </c>
       <c r="J46" s="1"/>
@@ -1857,7 +1870,7 @@
       <c r="G47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="9">
         <v>300</v>
       </c>
       <c r="J47" s="1"/>
@@ -1886,7 +1899,7 @@
       <c r="G48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="9">
         <v>300</v>
       </c>
       <c r="J48" s="1"/>
@@ -1915,7 +1928,7 @@
       <c r="G49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="9">
         <v>300</v>
       </c>
       <c r="J49" s="1"/>
@@ -3336,8 +3349,8 @@
       <c r="G98" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H98" s="2" t="s">
-        <v>21</v>
+      <c r="H98" s="2">
+        <v>234</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -3362,8 +3375,8 @@
       <c r="G99" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H99" s="2" t="s">
-        <v>21</v>
+      <c r="H99" s="2">
+        <v>234</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -3388,8 +3401,8 @@
       <c r="G100" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H100" s="2" t="s">
-        <v>21</v>
+      <c r="H100" s="2">
+        <v>234</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -3414,8 +3427,8 @@
       <c r="G101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H101" s="2" t="s">
-        <v>21</v>
+      <c r="H101" s="2">
+        <v>234</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -3441,7 +3454,7 @@
         <v>17</v>
       </c>
       <c r="H102" s="2">
-        <v>489</v>
+        <v>243</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -3467,7 +3480,7 @@
         <v>17</v>
       </c>
       <c r="H103" s="2">
-        <v>489</v>
+        <v>243</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -3493,7 +3506,7 @@
         <v>17</v>
       </c>
       <c r="H104" s="2">
-        <v>489</v>
+        <v>243</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -3519,7 +3532,7 @@
         <v>17</v>
       </c>
       <c r="H105" s="2">
-        <v>489</v>
+        <v>243</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -3544,8 +3557,8 @@
       <c r="G106" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H106" s="2" t="s">
-        <v>21</v>
+      <c r="H106" s="2">
+        <v>239</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -3570,8 +3583,8 @@
       <c r="G107" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H107" s="2" t="s">
-        <v>21</v>
+      <c r="H107" s="2">
+        <v>239</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -3596,8 +3609,8 @@
       <c r="G108" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H108" s="2" t="s">
-        <v>21</v>
+      <c r="H108" s="2">
+        <v>239</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -3622,8 +3635,8 @@
       <c r="G109" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H109" s="2" t="s">
-        <v>21</v>
+      <c r="H109" s="2">
+        <v>239</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -3649,7 +3662,7 @@
         <v>17</v>
       </c>
       <c r="H110" s="2">
-        <v>489</v>
+        <v>239</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -3675,7 +3688,7 @@
         <v>17</v>
       </c>
       <c r="H111" s="2">
-        <v>489</v>
+        <v>239</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -3701,7 +3714,7 @@
         <v>17</v>
       </c>
       <c r="H112" s="2">
-        <v>489</v>
+        <v>239</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -3727,7 +3740,7 @@
         <v>17</v>
       </c>
       <c r="H113" s="2">
-        <v>489</v>
+        <v>239</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -3752,8 +3765,8 @@
       <c r="G114" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H114" s="2" t="s">
-        <v>21</v>
+      <c r="H114" s="2">
+        <v>239</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -3778,8 +3791,8 @@
       <c r="G115" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H115" s="2" t="s">
-        <v>21</v>
+      <c r="H115" s="2">
+        <v>239</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -3804,8 +3817,8 @@
       <c r="G116" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H116" s="2" t="s">
-        <v>21</v>
+      <c r="H116" s="2">
+        <v>239</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -3830,8 +3843,8 @@
       <c r="G117" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H117" s="2" t="s">
-        <v>21</v>
+      <c r="H117" s="2">
+        <v>239</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -3857,7 +3870,7 @@
         <v>17</v>
       </c>
       <c r="H118" s="2">
-        <v>489</v>
+        <v>239</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -3883,7 +3896,7 @@
         <v>17</v>
       </c>
       <c r="H119" s="2">
-        <v>489</v>
+        <v>239</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -3909,7 +3922,7 @@
         <v>17</v>
       </c>
       <c r="H120" s="2">
-        <v>489</v>
+        <v>239</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -3935,7 +3948,7 @@
         <v>17</v>
       </c>
       <c r="H121" s="2">
-        <v>489</v>
+        <v>239</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -3961,7 +3974,7 @@
         <v>17</v>
       </c>
       <c r="H122" s="2">
-        <v>234</v>
+        <v>488.6</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -3987,7 +4000,7 @@
         <v>17</v>
       </c>
       <c r="H123" s="2">
-        <v>234</v>
+        <v>488.6</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -4013,7 +4026,7 @@
         <v>17</v>
       </c>
       <c r="H124" s="2">
-        <v>234</v>
+        <v>488.6</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -4039,7 +4052,7 @@
         <v>17</v>
       </c>
       <c r="H125" s="2">
-        <v>234</v>
+        <v>488.6</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -4065,7 +4078,7 @@
         <v>17</v>
       </c>
       <c r="H126" s="2">
-        <v>243</v>
+        <v>489</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -4091,7 +4104,7 @@
         <v>17</v>
       </c>
       <c r="H127" s="2">
-        <v>243</v>
+        <v>489</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -4117,7 +4130,7 @@
         <v>17</v>
       </c>
       <c r="H128" s="2">
-        <v>243</v>
+        <v>489</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -4143,7 +4156,7 @@
         <v>17</v>
       </c>
       <c r="H129" s="2">
-        <v>243</v>
+        <v>489</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -4169,7 +4182,7 @@
         <v>17</v>
       </c>
       <c r="H130" s="2">
-        <v>239</v>
+        <v>488.6</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -4195,7 +4208,7 @@
         <v>17</v>
       </c>
       <c r="H131" s="2">
-        <v>239</v>
+        <v>488.6</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -4221,7 +4234,7 @@
         <v>17</v>
       </c>
       <c r="H132" s="2">
-        <v>239</v>
+        <v>488.6</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -4247,7 +4260,7 @@
         <v>17</v>
       </c>
       <c r="H133" s="2">
-        <v>239</v>
+        <v>488.6</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -4273,7 +4286,7 @@
         <v>17</v>
       </c>
       <c r="H134" s="2">
-        <v>239</v>
+        <v>489</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -4299,7 +4312,7 @@
         <v>17</v>
       </c>
       <c r="H135" s="2">
-        <v>239</v>
+        <v>489</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -4325,7 +4338,7 @@
         <v>17</v>
       </c>
       <c r="H136" s="2">
-        <v>239</v>
+        <v>489</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -4351,7 +4364,7 @@
         <v>17</v>
       </c>
       <c r="H137" s="2">
-        <v>239</v>
+        <v>489</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -4377,7 +4390,7 @@
         <v>17</v>
       </c>
       <c r="H138" s="2">
-        <v>239</v>
+        <v>488.6</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -4403,7 +4416,7 @@
         <v>17</v>
       </c>
       <c r="H139" s="2">
-        <v>239</v>
+        <v>488.6</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -4429,7 +4442,7 @@
         <v>17</v>
       </c>
       <c r="H140" s="2">
-        <v>239</v>
+        <v>488.6</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -4455,7 +4468,7 @@
         <v>17</v>
       </c>
       <c r="H141" s="2">
-        <v>239</v>
+        <v>488.6</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -4481,7 +4494,7 @@
         <v>17</v>
       </c>
       <c r="H142" s="2">
-        <v>239</v>
+        <v>489</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -4507,7 +4520,7 @@
         <v>17</v>
       </c>
       <c r="H143" s="2">
-        <v>239</v>
+        <v>489</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -4533,7 +4546,7 @@
         <v>17</v>
       </c>
       <c r="H144" s="2">
-        <v>239</v>
+        <v>489</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
@@ -4559,37 +4572,35 @@
         <v>17</v>
       </c>
       <c r="H145" s="2">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B146" s="3">
-        <v>1</v>
-      </c>
-      <c r="C146" s="3">
+      <c r="B146" s="9">
+        <v>1</v>
+      </c>
+      <c r="C146" s="9">
         <v>101</v>
       </c>
-      <c r="D146" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E146" s="2">
+      <c r="D146" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" s="9">
         <v>214.98149182329016</v>
       </c>
-      <c r="F146" s="6">
+      <c r="F146" s="10">
         <v>650</v>
       </c>
-      <c r="G146" s="5" t="s">
+      <c r="G146" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H146" s="2">
+      <c r="H146" s="9">
         <v>294</v>
       </c>
-      <c r="J146" s="1"/>
-      <c r="K146" s="1"/>
-      <c r="L146" s="1"/>
+      <c r="I146" s="9"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
